--- a/Download Excel.xlsx
+++ b/Download Excel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -31,6 +31,9 @@
     <t xml:space="preserve">Model</t>
   </si>
   <si>
+    <t xml:space="preserve">Processor</t>
+  </si>
+  <si>
     <t xml:space="preserve">Year</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t xml:space="preserve">THINKPAD T480</t>
   </si>
   <si>
+    <t xml:space="preserve">11TH GEN Core i4</t>
+  </si>
+  <si>
     <t xml:space="preserve">$300</t>
   </si>
   <si>
@@ -64,10 +70,19 @@
     <t xml:space="preserve">$150</t>
   </si>
   <si>
-    <t xml:space="preserve">i7 generation laptop were released in March 2022 hence i4 &amp; i5 laptop sales dropped</t>
+    <t xml:space="preserve">i7 generation laptop were released in March 2016 hence i4 &amp; i5 laptop sales dropped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11TH GEN Core i3</t>
   </si>
   <si>
     <t xml:space="preserve">$100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11TH GEN Core i7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12TH GEN Core i7</t>
   </si>
   <si>
     <t xml:space="preserve">$350</t>
@@ -197,11 +212,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -210,6 +221,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -477,22 +492,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
+      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="4.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="25.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="4.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="22.88"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="24.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -511,184 +528,218 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="C2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7" t="n">
         <v>2015</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" customFormat="false" ht="48.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" customFormat="false" ht="36.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="n">
+      <c r="E3" s="7" t="n">
         <v>2016</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="7" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="7" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7" t="n">
-        <v>2019</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="7" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="7" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>2023</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="G10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>2024</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7" t="n">
-        <v>2021</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7" t="n">
-        <v>2022</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7" t="n">
-        <v>2023</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="8"/>
+      <c r="G11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" customFormat="false" ht="93.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -696,14 +747,16 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="B2:B11"/>
     <mergeCell ref="C2:C11"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
